--- a/data/trans_media/PCS12_SP-Habitat-trans_media.xlsx
+++ b/data/trans_media/PCS12_SP-Habitat-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,79; 53,61</t>
+          <t>50,84; 53,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,57; 53,41</t>
+          <t>50,34; 53,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,58; 52,24</t>
+          <t>48,48; 52,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,65; 50,07</t>
+          <t>46,01; 50,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,23; 51,0</t>
+          <t>47,14; 50,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,28; 50,27</t>
+          <t>45,97; 50,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,03; 51,38</t>
+          <t>47,08; 51,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,75; 49,65</t>
+          <t>46,44; 49,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,59; 51,95</t>
+          <t>49,63; 51,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,73; 51,42</t>
+          <t>48,85; 51,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,52; 51,26</t>
+          <t>48,68; 51,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,83; 49,4</t>
+          <t>46,92; 49,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,87; 53,07</t>
+          <t>51,96; 53,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,04; 52,64</t>
+          <t>51,06; 52,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,9; 53,28</t>
+          <t>51,91; 53,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,86; 51,35</t>
+          <t>49,8; 51,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,92; 51,35</t>
+          <t>50,0; 51,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,54; 50,4</t>
+          <t>48,54; 50,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 50,2</t>
+          <t>48,36; 50,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,41; 49,81</t>
+          <t>48,36; 49,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,09; 52,04</t>
+          <t>51,14; 52,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,06; 51,26</t>
+          <t>50,07; 51,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,34; 51,51</t>
+          <t>50,42; 51,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,28; 50,31</t>
+          <t>49,27; 50,33</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,4; 53,38</t>
+          <t>52,39; 53,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,49; 52,68</t>
+          <t>51,49; 52,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,04; 53,15</t>
+          <t>52,11; 53,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,18; 52,45</t>
+          <t>51,23; 52,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,83; 51,07</t>
+          <t>49,8; 50,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,32 +1034,32 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,74; 51,03</t>
+          <t>49,72; 51,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,99; 50,09</t>
+          <t>49,1; 50,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,24; 52,02</t>
+          <t>51,3; 52,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,4; 51,25</t>
+          <t>50,39; 51,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,06; 51,89</t>
+          <t>51,12; 51,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>50,38; 51,11</t>
+          <t>50,37; 51,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,23</t>
+          <t>52,14; 53,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,44</t>
+          <t>52,17; 53,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,33; 53,47</t>
+          <t>52,4; 53,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,81; 52,26</t>
+          <t>50,83; 52,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,21; 50,81</t>
+          <t>49,28; 50,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,37; 50,87</t>
+          <t>49,4; 50,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,49</t>
+          <t>50,0; 51,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,0; 51,6</t>
+          <t>50,02; 51,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,86; 51,83</t>
+          <t>50,88; 51,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,01; 51,96</t>
+          <t>50,98; 51,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,43; 52,35</t>
+          <t>51,35; 52,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,6; 51,66</t>
+          <t>50,61; 51,69</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,54; 53,46</t>
+          <t>52,54; 53,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,55; 52,74</t>
+          <t>51,58; 52,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,25; 53,3</t>
+          <t>52,25; 53,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,58; 51,65</t>
+          <t>50,6; 51,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,85; 51,03</t>
+          <t>49,84; 51,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,21; 50,49</t>
+          <t>49,14; 50,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,98; 51,31</t>
+          <t>50,02; 51,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,34; 49,61</t>
+          <t>48,4; 49,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,25; 52,02</t>
+          <t>51,27; 52,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,56; 51,41</t>
+          <t>50,56; 51,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,23; 52,1</t>
+          <t>51,2; 52,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,6; 50,39</t>
+          <t>49,58; 50,4</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,05</t>
+          <t>52,55; 53,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,94; 52,58</t>
+          <t>51,96; 52,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,4; 52,97</t>
+          <t>52,43; 52,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,0; 51,59</t>
+          <t>50,99; 51,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,66</t>
+          <t>50,03; 50,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,1</t>
+          <t>49,4; 50,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,97; 50,76</t>
+          <t>50,04; 50,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>49,21; 49,97</t>
+          <t>49,22; 49,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,77</t>
+          <t>51,34; 51,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,73; 51,2</t>
+          <t>50,74; 51,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,29; 51,78</t>
+          <t>51,28; 51,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>50,17; 50,63</t>
+          <t>50,16; 50,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/PCS12_SP-Habitat-trans_media.xlsx
+++ b/data/trans_media/PCS12_SP-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,84; 53,53</t>
+          <t>50,63; 53,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,34; 53,3</t>
+          <t>50,39; 53,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,48; 52,04</t>
+          <t>48,69; 52,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,14; 50,93</t>
+          <t>47,41; 50,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,97; 50,47</t>
+          <t>46,11; 50,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,08; 51,34</t>
+          <t>47,21; 51,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,63; 51,92</t>
+          <t>49,68; 52,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,85; 51,5</t>
+          <t>48,61; 51,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,68; 51,23</t>
+          <t>48,5; 51,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,96; 53,11</t>
+          <t>51,92; 53,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,06; 52,61</t>
+          <t>51,08; 52,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,91; 53,29</t>
+          <t>51,88; 53,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,0; 51,46</t>
+          <t>49,87; 51,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,54; 50,37</t>
+          <t>48,54; 50,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,36; 50,23</t>
+          <t>48,33; 50,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,14; 52,08</t>
+          <t>51,1; 52,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,07; 51,28</t>
+          <t>50,12; 51,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,42; 51,55</t>
+          <t>50,39; 51,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,39; 53,37</t>
+          <t>52,36; 53,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,49; 52,61</t>
+          <t>51,52; 52,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,11; 53,15</t>
+          <t>52,16; 53,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,8; 50,96</t>
+          <t>49,77; 50,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,85; 50,26</t>
+          <t>48,91; 50,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,72; 51,02</t>
+          <t>49,7; 51,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,3; 52,05</t>
+          <t>51,25; 52,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,39; 51,26</t>
+          <t>50,43; 51,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,12; 51,96</t>
+          <t>51,05; 51,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,14; 53,24</t>
+          <t>52,13; 53,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,17; 53,45</t>
+          <t>52,2; 53,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,4; 53,56</t>
+          <t>52,37; 53,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,28; 50,72</t>
+          <t>49,27; 50,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,4; 50,88</t>
+          <t>49,32; 50,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,0; 51,55</t>
+          <t>50,01; 51,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,88; 51,81</t>
+          <t>50,84; 51,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,98; 51,98</t>
+          <t>51,03; 52,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,35; 52,34</t>
+          <t>51,41; 52,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,54; 53,43</t>
+          <t>52,57; 53,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,84; 51,02</t>
+          <t>49,89; 51,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,14; 50,45</t>
+          <t>49,28; 50,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,33</t>
+          <t>49,96; 51,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,27; 52,01</t>
+          <t>51,29; 52,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,56; 51,39</t>
+          <t>50,57; 51,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,2; 52,1</t>
+          <t>51,19; 52,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,06</t>
+          <t>52,54; 53,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,96; 52,56</t>
+          <t>51,92; 52,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,43; 52,98</t>
+          <t>52,43; 52,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>50,03; 50,67</t>
+          <t>50,02; 50,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,4; 50,11</t>
+          <t>49,38; 50,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,04; 50,78</t>
+          <t>50,0; 50,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,78</t>
+          <t>51,35; 51,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,74; 51,21</t>
+          <t>50,73; 51,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,73</t>
+          <t>51,25; 51,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
